--- a/files/Analysis_MA2/_Analysis_MA2_activity.xlsx
+++ b/files/Analysis_MA2/_Analysis_MA2_activity.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="activity_phase" sheetId="1" r:id="rId1"/>
     <sheet name="activity_pattern" sheetId="2" r:id="rId2"/>
+    <sheet name="active_count" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -16904,4 +16905,820 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>fly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Night_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Night_2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Night_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Day_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Day_2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>fly_01</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>2.102222222222222</v>
+      </c>
+      <c r="C2">
+        <v>2.10625</v>
+      </c>
+      <c r="E2">
+        <v>2.437308868501529</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fly_02</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>1.797169811320755</v>
+      </c>
+      <c r="C3">
+        <v>1.811111111111111</v>
+      </c>
+      <c r="D3">
+        <v>1.784431137724551</v>
+      </c>
+      <c r="E3">
+        <v>2.386018237082067</v>
+      </c>
+      <c r="F3">
+        <v>2.203065134099617</v>
+      </c>
+      <c r="G3">
+        <v>2.038793103448276</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>fly_03</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2.624309392265193</v>
+      </c>
+      <c r="C4">
+        <v>2.928057553956835</v>
+      </c>
+      <c r="D4">
+        <v>2.226950354609929</v>
+      </c>
+      <c r="E4">
+        <v>3.245762711864407</v>
+      </c>
+      <c r="F4">
+        <v>3.145</v>
+      </c>
+      <c r="G4">
+        <v>3.355140186915888</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fly_04</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>2.216494845360825</v>
+      </c>
+      <c r="C5">
+        <v>2.230769230769231</v>
+      </c>
+      <c r="D5">
+        <v>2.425925925925926</v>
+      </c>
+      <c r="E5">
+        <v>3.410810810810811</v>
+      </c>
+      <c r="F5">
+        <v>3.083333333333334</v>
+      </c>
+      <c r="G5">
+        <v>2.431818181818182</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>fly_05</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>2.566820276497696</v>
+      </c>
+      <c r="C6">
+        <v>2.238341968911917</v>
+      </c>
+      <c r="D6">
+        <v>2.470588235294118</v>
+      </c>
+      <c r="E6">
+        <v>2.776758409785933</v>
+      </c>
+      <c r="F6">
+        <v>2.597402597402597</v>
+      </c>
+      <c r="G6">
+        <v>2.477031802120141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fly_06</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>2.398058252427184</v>
+      </c>
+      <c r="C7">
+        <v>2.470198675496689</v>
+      </c>
+      <c r="D7">
+        <v>2.171232876712329</v>
+      </c>
+      <c r="E7">
+        <v>3.52</v>
+      </c>
+      <c r="F7">
+        <v>3.826979472140763</v>
+      </c>
+      <c r="G7">
+        <v>3.251515151515152</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fly_07</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>2.54320987654321</v>
+      </c>
+      <c r="C8">
+        <v>2.23728813559322</v>
+      </c>
+      <c r="D8">
+        <v>1.923728813559322</v>
+      </c>
+      <c r="E8">
+        <v>3.42817679558011</v>
+      </c>
+      <c r="F8">
+        <v>2.897526501766785</v>
+      </c>
+      <c r="G8">
+        <v>2.688034188034188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>fly_08</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>2.402714932126697</v>
+      </c>
+      <c r="C9">
+        <v>2.284883720930233</v>
+      </c>
+      <c r="D9">
+        <v>2.183823529411765</v>
+      </c>
+      <c r="E9">
+        <v>2.94579945799458</v>
+      </c>
+      <c r="F9">
+        <v>2.719367588932806</v>
+      </c>
+      <c r="G9">
+        <v>2.49009900990099</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>fly_09</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>1.859060402684564</v>
+      </c>
+      <c r="C10">
+        <v>2.011494252873563</v>
+      </c>
+      <c r="D10">
+        <v>1.962962962962963</v>
+      </c>
+      <c r="E10">
+        <v>3.012072434607646</v>
+      </c>
+      <c r="F10">
+        <v>2.391849529780564</v>
+      </c>
+      <c r="G10">
+        <v>2.736507936507937</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fly_10</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>3.01271186440678</v>
+      </c>
+      <c r="C11">
+        <v>3.219895287958115</v>
+      </c>
+      <c r="D11">
+        <v>3.069182389937107</v>
+      </c>
+      <c r="E11">
+        <v>4.080717488789238</v>
+      </c>
+      <c r="F11">
+        <v>3.862337662337662</v>
+      </c>
+      <c r="G11">
+        <v>4.010362694300518</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>fly_11</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2.409691629955947</v>
+      </c>
+      <c r="C12">
+        <v>2.335227272727273</v>
+      </c>
+      <c r="D12">
+        <v>2.237804878048781</v>
+      </c>
+      <c r="E12">
+        <v>3.590257879656161</v>
+      </c>
+      <c r="F12">
+        <v>3.449275362318841</v>
+      </c>
+      <c r="G12">
+        <v>2.865454545454545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>fly_12</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>2.18232044198895</v>
+      </c>
+      <c r="C13">
+        <v>2.009433962264151</v>
+      </c>
+      <c r="D13">
+        <v>1.924731182795699</v>
+      </c>
+      <c r="E13">
+        <v>3.69364161849711</v>
+      </c>
+      <c r="F13">
+        <v>3.510869565217391</v>
+      </c>
+      <c r="G13">
+        <v>3.507507507507508</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fly_13</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2.582978723404255</v>
+      </c>
+      <c r="C14">
+        <v>2.3</v>
+      </c>
+      <c r="D14">
+        <v>2.080536912751678</v>
+      </c>
+      <c r="E14">
+        <v>2.908450704225352</v>
+      </c>
+      <c r="F14">
+        <v>2.62707182320442</v>
+      </c>
+      <c r="G14">
+        <v>2.165137614678899</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>fly_14</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>1.821621621621622</v>
+      </c>
+      <c r="C15">
+        <v>1.984</v>
+      </c>
+      <c r="D15">
+        <v>1.876106194690266</v>
+      </c>
+      <c r="E15">
+        <v>2.53757225433526</v>
+      </c>
+      <c r="F15">
+        <v>2.362459546925567</v>
+      </c>
+      <c r="G15">
+        <v>2.411575562700965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>fly_15</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>2.437768240343348</v>
+      </c>
+      <c r="C16">
+        <v>1.956284153005464</v>
+      </c>
+      <c r="D16">
+        <v>1.835294117647059</v>
+      </c>
+      <c r="E16">
+        <v>2.804812834224599</v>
+      </c>
+      <c r="F16">
+        <v>2.536931818181818</v>
+      </c>
+      <c r="G16">
+        <v>2.19205298013245</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>fly_16</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>1.528169014084507</v>
+      </c>
+      <c r="C17">
+        <v>1.468085106382979</v>
+      </c>
+      <c r="D17">
+        <v>1.452991452991453</v>
+      </c>
+      <c r="E17">
+        <v>2.423809523809524</v>
+      </c>
+      <c r="F17">
+        <v>2.286624203821656</v>
+      </c>
+      <c r="G17">
+        <v>2.369426751592357</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>fly_17</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="C18">
+        <v>2.145695364238411</v>
+      </c>
+      <c r="D18">
+        <v>2.470198675496689</v>
+      </c>
+      <c r="E18">
+        <v>3.352941176470588</v>
+      </c>
+      <c r="F18">
+        <v>2.721568627450981</v>
+      </c>
+      <c r="G18">
+        <v>2.60093896713615</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fly_18</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>2.167487684729064</v>
+      </c>
+      <c r="C19">
+        <v>2.19620253164557</v>
+      </c>
+      <c r="D19">
+        <v>2.3</v>
+      </c>
+      <c r="E19">
+        <v>2.831578947368421</v>
+      </c>
+      <c r="F19">
+        <v>2.68235294117647</v>
+      </c>
+      <c r="G19">
+        <v>2.21195652173913</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fly_19</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>2.065573770491803</v>
+      </c>
+      <c r="C20">
+        <v>2.18018018018018</v>
+      </c>
+      <c r="D20">
+        <v>2.278481012658228</v>
+      </c>
+      <c r="E20">
+        <v>3.829912023460411</v>
+      </c>
+      <c r="F20">
+        <v>3.46749226006192</v>
+      </c>
+      <c r="G20">
+        <v>3.052845528455285</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>fly_20</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>2.589473684210526</v>
+      </c>
+      <c r="C21">
+        <v>2.797546012269939</v>
+      </c>
+      <c r="D21">
+        <v>3.037974683544304</v>
+      </c>
+      <c r="E21">
+        <v>4.080168776371308</v>
+      </c>
+      <c r="F21">
+        <v>3.733905579399142</v>
+      </c>
+      <c r="G21">
+        <v>3.831223628691983</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>fly_21</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>2.056338028169014</v>
+      </c>
+      <c r="C22">
+        <v>2.314009661835749</v>
+      </c>
+      <c r="D22">
+        <v>2.300653594771242</v>
+      </c>
+      <c r="E22">
+        <v>3.089605734767025</v>
+      </c>
+      <c r="F22">
+        <v>2.822525597269625</v>
+      </c>
+      <c r="G22">
+        <v>2.379182156133829</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>fly_22</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>2.06</v>
+      </c>
+      <c r="C23">
+        <v>1.510204081632653</v>
+      </c>
+      <c r="D23">
+        <v>1.349056603773585</v>
+      </c>
+      <c r="E23">
+        <v>2.321266968325792</v>
+      </c>
+      <c r="F23">
+        <v>2.098360655737705</v>
+      </c>
+      <c r="G23">
+        <v>1.987577639751553</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>fly_23</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>2.573099415204678</v>
+      </c>
+      <c r="C24">
+        <v>2.34</v>
+      </c>
+      <c r="D24">
+        <v>2.356687898089172</v>
+      </c>
+      <c r="E24">
+        <v>3.550660792951542</v>
+      </c>
+      <c r="F24">
+        <v>3.320574162679426</v>
+      </c>
+      <c r="G24">
+        <v>2.588235294117647</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>fly_24</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>2.647058823529412</v>
+      </c>
+      <c r="C25">
+        <v>2.078787878787879</v>
+      </c>
+      <c r="D25">
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E25">
+        <v>3.095070422535212</v>
+      </c>
+      <c r="F25">
+        <v>3.153333333333333</v>
+      </c>
+      <c r="G25">
+        <v>2.892988929889299</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fly_25</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>2.658536585365854</v>
+      </c>
+      <c r="C26">
+        <v>2.087378640776699</v>
+      </c>
+      <c r="D26">
+        <v>1.95</v>
+      </c>
+      <c r="E26">
+        <v>4.142307692307693</v>
+      </c>
+      <c r="F26">
+        <v>3.194871794871795</v>
+      </c>
+      <c r="G26">
+        <v>2.752688172043011</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fly_26</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>2.266355140186916</v>
+      </c>
+      <c r="C27">
+        <v>1.764227642276423</v>
+      </c>
+      <c r="D27">
+        <v>2.116883116883117</v>
+      </c>
+      <c r="E27">
+        <v>2.513432835820896</v>
+      </c>
+      <c r="F27">
+        <v>2.197628458498024</v>
+      </c>
+      <c r="G27">
+        <v>2.116279069767442</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>fly_28</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="C28">
+        <v>2.395833333333334</v>
+      </c>
+      <c r="D28">
+        <v>1.7375</v>
+      </c>
+      <c r="E28">
+        <v>2.583941605839416</v>
+      </c>
+      <c r="F28">
+        <v>2.128205128205128</v>
+      </c>
+      <c r="G28">
+        <v>1.990476190476191</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>fly_29</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="C29">
+        <v>2.155038759689922</v>
+      </c>
+      <c r="D29">
+        <v>1.963235294117647</v>
+      </c>
+      <c r="E29">
+        <v>3.116788321167883</v>
+      </c>
+      <c r="F29">
+        <v>2.836120401337793</v>
+      </c>
+      <c r="G29">
+        <v>2.324561403508772</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>fly_30</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>2.407582938388626</v>
+      </c>
+      <c r="C30">
+        <v>2.246575342465754</v>
+      </c>
+      <c r="D30">
+        <v>2.120300751879699</v>
+      </c>
+      <c r="E30">
+        <v>2.801699716713881</v>
+      </c>
+      <c r="F30">
+        <v>2.795454545454545</v>
+      </c>
+      <c r="G30">
+        <v>3.056603773584906</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>fly_31</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2.330188679245283</v>
+      </c>
+      <c r="C31">
+        <v>2.441624365482233</v>
+      </c>
+      <c r="D31">
+        <v>2.473404255319149</v>
+      </c>
+      <c r="E31">
+        <v>2.909385113268609</v>
+      </c>
+      <c r="F31">
+        <v>2.638655462184874</v>
+      </c>
+      <c r="G31">
+        <v>2.479245283018868</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fly_32</t>
+        </is>
+      </c>
+      <c r="B32">
+        <v>1.235714285714286</v>
+      </c>
+      <c r="C32">
+        <v>1.561904761904762</v>
+      </c>
+      <c r="D32">
+        <v>1.3</v>
+      </c>
+      <c r="E32">
+        <v>2.555084745762712</v>
+      </c>
+      <c r="F32">
+        <v>2.350877192982456</v>
+      </c>
+      <c r="G32">
+        <v>1.869767441860465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>